--- a/src/analysis_examples/circadb/results_jtk/cosinor_10526133_rabgef1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10526133_rabgef1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.13606695811509212, 0.26760830956314036]</t>
+          <t>[0.13683303250589302, 0.26684223517233946]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.510890706686197e-06</v>
+        <v>2.125856079393529e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.510890706686197e-06</v>
+        <v>2.125856079393529e-06</v>
       </c>
       <c r="O2" t="n">
         <v>0.1320789704211922</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.27177334642820555, 0.3511659141414251]</t>
+          <t>[0.27174819583753473, 0.35119106473209594]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.100541962590796e-13</v>
+        <v>2.1271873151818e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>2.100541962590796e-13</v>
+        <v>2.1271873151818e-13</v>
       </c>
       <c r="W2" t="n">
         <v>26.25621621621726</v>
